--- a/#AdWatchGlobalConfig.xlsx
+++ b/#AdWatchGlobalConfig.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="11775"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="AdWatchGlobalConfig" sheetId="1" r:id="rId1"/>
@@ -77,13 +77,13 @@
     <t>描述</t>
   </si>
   <si>
-    <t>个数</t>
+    <t>概率</t>
   </si>
   <si>
     <t>观看1-20次的档位（前后包含）</t>
   </si>
   <si>
-    <t>观看21-40次的档位（前后包含）</t>
+    <t>观看11-40次的档位（前后包含）</t>
   </si>
   <si>
     <t>观看41-80次的档位（前后包含）</t>
@@ -1075,7 +1075,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1">
         <v>40</v>
@@ -1199,7 +1199,7 @@
         <v>80</v>
       </c>
       <c r="E7" s="4">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>19</v>
@@ -1216,7 +1216,7 @@
         <v>100</v>
       </c>
       <c r="E8" s="4">
-        <v>0.008</v>
+        <v>0.005</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>20</v>
